--- a/GestorReceitas/Janeiro/RecebimentosNumerario.xlsx
+++ b/GestorReceitas/Janeiro/RecebimentosNumerario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Janeiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D48225-E6AC-4A56-85AE-43F35D9C0EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9009B0A6-1414-4F4D-8D85-C5032CDB1D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -901,8 +901,8 @@
   <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K142" sqref="K142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
